--- a/data/employee.xlsx
+++ b/data/employee.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\program\LotteryDraw\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5070A9-DB31-436D-9164-899E23733676}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC6FBDA-34A5-4876-AD44-A3B522569DB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13095" yWindow="1605" windowWidth="21600" windowHeight="11385" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1245" yWindow="3480" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="本部" sheetId="1" r:id="rId1"/>
@@ -375,6 +375,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="000000"/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -781,19 +784,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -823,6 +820,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="194">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1357,105 +1361,106 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11" style="4"/>
-    <col min="3" max="3" width="11" style="14"/>
-    <col min="4" max="16384" width="11" style="4"/>
+    <col min="1" max="1" width="11" style="17"/>
+    <col min="2" max="2" width="11" style="3"/>
+    <col min="3" max="3" width="11" style="12"/>
+    <col min="4" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2">
+      <c r="A1" s="15">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="14">
+      <c r="C1" s="12">
         <v>1</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="16">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="12">
         <v>1</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="16">
         <v>3</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="15">
         <v>4</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="16">
         <v>5</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+      <c r="A6" s="16">
         <v>6</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="11" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1468,53 +1473,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="A28" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="11" style="4"/>
+    <col min="1" max="1" width="11" style="17"/>
+    <col min="2" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2">
+      <c r="A1" s="15">
         <v>23441</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="16">
         <v>23442</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="15">
         <v>23443</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="16">
         <v>23444</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1522,22 +1528,22 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="15">
         <v>23445</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="16"/>
+      <c r="D5" s="14"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="16">
         <v>23446</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1545,10 +1551,10 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="15">
         <v>23447</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1556,10 +1562,10 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="16">
         <v>23448</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1567,10 +1573,10 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="15">
         <v>23449</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1578,10 +1584,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="16">
         <v>23450</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1589,34 +1595,34 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="15">
         <v>23451</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="16"/>
+      <c r="D11" s="14"/>
     </row>
     <row r="12" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
+      <c r="A12" s="16">
         <v>23452</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="16"/>
+      <c r="D12" s="14"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13" s="15">
         <v>23453</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1625,10 +1631,10 @@
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="16">
         <v>23454</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1637,10 +1643,10 @@
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="A15" s="15">
         <v>23455</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1649,10 +1655,10 @@
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="A16" s="16">
         <v>23456</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1661,22 +1667,22 @@
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="A17" s="15">
         <v>23457</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="16"/>
+      <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="A18" s="16">
         <v>23458</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1684,10 +1690,10 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="A19" s="15">
         <v>23459</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -1695,10 +1701,10 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="A20" s="16">
         <v>23460</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1706,10 +1712,10 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="A21" s="15">
         <v>23461</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1717,10 +1723,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+      <c r="A22" s="16">
         <v>23462</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -1728,10 +1734,10 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="A23" s="15">
         <v>23463</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="7" t="s">
         <v>34</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -1739,22 +1745,22 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
+      <c r="A24" s="16">
         <v>23464</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="16"/>
+      <c r="D24" s="14"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="A25" s="15">
         <v>23465</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -1762,10 +1768,10 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+      <c r="A26" s="16">
         <v>23466</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1773,10 +1779,10 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+      <c r="A27" s="15">
         <v>23467</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="7" t="s">
         <v>38</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -1784,10 +1790,10 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
+      <c r="A28" s="16">
         <v>23468</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -1795,10 +1801,10 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+      <c r="A29" s="15">
         <v>23469</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -1806,10 +1812,10 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+      <c r="A30" s="16">
         <v>23470</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -1817,34 +1823,34 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+      <c r="A31" s="15">
         <v>23471</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="7" t="s">
         <v>42</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D31" s="16"/>
+      <c r="D31" s="14"/>
     </row>
     <row r="32" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5">
+      <c r="A32" s="16">
         <v>23472</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="5" t="s">
         <v>43</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D32" s="16"/>
+      <c r="D32" s="14"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+      <c r="A33" s="15">
         <v>23473</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="6" t="s">
         <v>44</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -1852,10 +1858,10 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
+      <c r="A34" s="16">
         <v>23474</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -1863,10 +1869,10 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+      <c r="A35" s="15">
         <v>23475</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -1874,46 +1880,46 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
+      <c r="A36" s="16">
         <v>23476</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D36" s="16"/>
+      <c r="D36" s="14"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+      <c r="A37" s="15">
         <v>23477</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D37" s="16"/>
+      <c r="D37" s="14"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
+      <c r="A38" s="16">
         <v>23478</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="16"/>
+      <c r="D38" s="14"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
+      <c r="A39" s="15">
         <v>23479</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="7" t="s">
         <v>50</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -1921,58 +1927,58 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
+      <c r="A40" s="16">
         <v>23480</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="7" t="s">
         <v>51</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D40" s="16"/>
+      <c r="D40" s="14"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
+      <c r="A41" s="15">
         <v>23481</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D41" s="16"/>
+      <c r="D41" s="14"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
+      <c r="A42" s="16">
         <v>23482</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="7" t="s">
         <v>53</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D42" s="16"/>
+      <c r="D42" s="14"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
+      <c r="A43" s="15">
         <v>23483</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="7" t="s">
         <v>54</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D43" s="16"/>
+      <c r="D43" s="14"/>
     </row>
     <row r="44" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="5">
+      <c r="A44" s="16">
         <v>23484</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -1980,10 +1986,10 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
+      <c r="A45" s="15">
         <v>23485</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -1991,10 +1997,10 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="5">
+      <c r="A46" s="16">
         <v>23486</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="7" t="s">
         <v>57</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -2002,10 +2008,10 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
+      <c r="A47" s="15">
         <v>23487</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="7" t="s">
         <v>58</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -2013,10 +2019,10 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="5">
+      <c r="A48" s="16">
         <v>23488</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -2024,10 +2030,10 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
+      <c r="A49" s="15">
         <v>23489</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -2035,10 +2041,10 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="5">
+      <c r="A50" s="16">
         <v>23490</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="7" t="s">
         <v>61</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -2046,10 +2052,10 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
+      <c r="A51" s="15">
         <v>23491</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -2057,10 +2063,10 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="5">
+      <c r="A52" s="16">
         <v>23492</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="7" t="s">
         <v>63</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -2068,24 +2074,24 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
+      <c r="A53" s="15">
         <v>23493</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="7" t="s">
         <v>64</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D53" s="16" t="s">
+      <c r="D53" s="14" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="5">
+      <c r="A54" s="16">
         <v>23494</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="7" t="s">
         <v>65</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -2093,10 +2099,10 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
+      <c r="A55" s="15">
         <v>23495</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="7" t="s">
         <v>66</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -2104,36 +2110,36 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="5">
+      <c r="A56" s="16">
         <v>23496</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="7" t="s">
         <v>67</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D56" s="16" t="s">
+      <c r="D56" s="14" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
+      <c r="A57" s="15">
         <v>23497</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="7" t="s">
         <v>68</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D57" s="16"/>
+      <c r="D57" s="14"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="5">
+      <c r="A58" s="16">
         <v>23498</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="7" t="s">
         <v>69</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -2141,10 +2147,10 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
+      <c r="A59" s="15">
         <v>23499</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="7" t="s">
         <v>70</v>
       </c>
       <c r="C59" s="1" t="s">
@@ -2152,10 +2158,10 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="5">
+      <c r="A60" s="16">
         <v>23500</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="7" t="s">
         <v>71</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -2163,10 +2169,10 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
+      <c r="A61" s="15">
         <v>23501</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="7" t="s">
         <v>72</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -2174,10 +2180,10 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="5">
+      <c r="A62" s="16">
         <v>23502</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C62" s="1" t="s">
@@ -2185,10 +2191,10 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
+      <c r="A63" s="15">
         <v>23503</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="5" t="s">
         <v>74</v>
       </c>
       <c r="C63" s="1" t="s">
@@ -2196,10 +2202,10 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="5">
+      <c r="A64" s="16">
         <v>23504</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="6" t="s">
         <v>75</v>
       </c>
       <c r="C64" s="1" t="s">
@@ -2207,10 +2213,10 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
+      <c r="A65" s="15">
         <v>23505</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="7" t="s">
         <v>76</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -2218,10 +2224,10 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="5">
+      <c r="A66" s="16">
         <v>23506</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="7" t="s">
         <v>77</v>
       </c>
       <c r="C66" s="1" t="s">
@@ -2229,10 +2235,10 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
+      <c r="A67" s="15">
         <v>23507</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="7" t="s">
         <v>78</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -2240,10 +2246,10 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="5">
+      <c r="A68" s="16">
         <v>23508</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="7" t="s">
         <v>79</v>
       </c>
       <c r="C68" s="1" t="s">
@@ -2251,34 +2257,34 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
+      <c r="A69" s="15">
         <v>23509</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="7" t="s">
         <v>80</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D69" s="16"/>
+      <c r="D69" s="14"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="5">
+      <c r="A70" s="16">
         <v>23510</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="7" t="s">
         <v>81</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D70" s="16"/>
+      <c r="D70" s="14"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
+      <c r="A71" s="15">
         <v>23511</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="7" t="s">
         <v>82</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -2287,10 +2293,10 @@
       <c r="D71" s="1"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="5">
+      <c r="A72" s="16">
         <v>23512</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="7" t="s">
         <v>83</v>
       </c>
       <c r="C72" s="1" t="s">
@@ -2299,10 +2305,10 @@
       <c r="D72" s="1"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
+      <c r="A73" s="15">
         <v>23513</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="7" t="s">
         <v>84</v>
       </c>
       <c r="C73" s="1" t="s">
@@ -2311,10 +2317,10 @@
       <c r="D73" s="1"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="5">
+      <c r="A74" s="16">
         <v>23514</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="7" t="s">
         <v>85</v>
       </c>
       <c r="C74" s="1" t="s">
@@ -2323,10 +2329,10 @@
       <c r="D74" s="1"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
+      <c r="A75" s="15">
         <v>23515</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B75" s="7" t="s">
         <v>86</v>
       </c>
       <c r="C75" s="1" t="s">
@@ -2335,22 +2341,22 @@
       <c r="D75" s="1"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="5">
+      <c r="A76" s="16">
         <v>23516</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B76" s="7" t="s">
         <v>87</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D76" s="16"/>
+      <c r="D76" s="14"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="2">
+      <c r="A77" s="15">
         <v>23517</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B77" s="7" t="s">
         <v>88</v>
       </c>
       <c r="C77" s="1" t="s">
@@ -2359,10 +2365,10 @@
       <c r="D77" s="1"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="5">
+      <c r="A78" s="16">
         <v>23518</v>
       </c>
-      <c r="B78" s="11" t="s">
+      <c r="B78" s="9" t="s">
         <v>89</v>
       </c>
       <c r="C78" s="1" t="s">
@@ -2371,10 +2377,10 @@
       <c r="D78" s="1"/>
     </row>
     <row r="79" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="2">
+      <c r="A79" s="15">
         <v>23519</v>
       </c>
-      <c r="B79" s="10" t="s">
+      <c r="B79" s="8" t="s">
         <v>90</v>
       </c>
       <c r="C79" s="1" t="s">
@@ -2383,10 +2389,10 @@
       <c r="D79" s="1"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="5">
+      <c r="A80" s="16">
         <v>23520</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C80" s="1" t="s">
@@ -2395,94 +2401,94 @@
       <c r="D80" s="1"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
+      <c r="A81" s="15">
         <v>23521</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="B81" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D81" s="16"/>
+      <c r="D81" s="14"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="5">
+      <c r="A82" s="16">
         <v>23522</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B82" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D82" s="16"/>
+      <c r="D82" s="14"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="2">
+      <c r="A83" s="15">
         <v>23523</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="B83" s="4" t="s">
         <v>94</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D83" s="16"/>
+      <c r="D83" s="14"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="5">
+      <c r="A84" s="16">
         <v>23524</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B84" s="4" t="s">
         <v>95</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D84" s="16"/>
+      <c r="D84" s="14"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="2">
+      <c r="A85" s="15">
         <v>23525</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B85" s="4" t="s">
         <v>96</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D85" s="16"/>
+      <c r="D85" s="14"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="5">
+      <c r="A86" s="16">
         <v>23526</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="B86" s="4" t="s">
         <v>97</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D86" s="16"/>
+      <c r="D86" s="14"/>
     </row>
     <row r="87" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="2">
+      <c r="A87" s="15">
         <v>23527</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="B87" s="5" t="s">
         <v>98</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D87" s="16"/>
+      <c r="D87" s="14"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="5">
+      <c r="A88" s="16">
         <v>23528</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C88" s="1" t="s">
@@ -2491,10 +2497,10 @@
       <c r="D88" s="1"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="2">
+      <c r="A89" s="15">
         <v>23529</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B89" s="4" t="s">
         <v>100</v>
       </c>
       <c r="C89" s="1" t="s">
@@ -2503,10 +2509,10 @@
       <c r="D89" s="1"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="5">
+      <c r="A90" s="16">
         <v>23530</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="B90" s="4" t="s">
         <v>101</v>
       </c>
       <c r="C90" s="1" t="s">
@@ -2515,10 +2521,10 @@
       <c r="D90" s="1"/>
     </row>
     <row r="91" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="2">
+      <c r="A91" s="15">
         <v>23531</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="B91" s="5" t="s">
         <v>102</v>
       </c>
       <c r="C91" s="1" t="s">
@@ -2527,34 +2533,34 @@
       <c r="D91" s="1"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="5">
+      <c r="A92" s="16">
         <v>23532</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D92" s="16"/>
+      <c r="D92" s="14"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="2">
+      <c r="A93" s="15">
         <v>23533</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="B93" s="4" t="s">
         <v>104</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D93" s="16"/>
+      <c r="D93" s="14"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="5">
+      <c r="A94" s="16">
         <v>23534</v>
       </c>
-      <c r="B94" s="6" t="s">
+      <c r="B94" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C94" s="1" t="s">
@@ -2563,22 +2569,22 @@
       <c r="D94" s="1"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="2">
+      <c r="A95" s="15">
         <v>23535</v>
       </c>
-      <c r="B95" s="6" t="s">
+      <c r="B95" s="4" t="s">
         <v>106</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D95" s="16"/>
+      <c r="D95" s="14"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="5">
+      <c r="A96" s="16">
         <v>23536</v>
       </c>
-      <c r="B96" s="6" t="s">
+      <c r="B96" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C96" s="1" t="s">
@@ -2587,22 +2593,22 @@
       <c r="D96" s="1"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="2">
+      <c r="A97" s="15">
         <v>23537</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="B97" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D97" s="16"/>
+      <c r="D97" s="14"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="5">
+      <c r="A98" s="16">
         <v>23538</v>
       </c>
-      <c r="B98" s="12" t="s">
+      <c r="B98" s="10" t="s">
         <v>109</v>
       </c>
       <c r="C98" s="1" t="s">
@@ -2611,19 +2617,19 @@
       <c r="D98" s="1"/>
     </row>
     <row r="99" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="2">
+      <c r="A99" s="15">
         <v>23539</v>
       </c>
-      <c r="B99" s="7" t="s">
+      <c r="B99" s="5" t="s">
         <v>110</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D99" s="16"/>
+      <c r="D99" s="14"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B103" s="13">
+      <c r="B103" s="11">
         <f>6+99</f>
         <v>105</v>
       </c>
